--- a/biology/Botanique/Liste_des_noms_vernaculaires_de_bambou/Liste_des_noms_vernaculaires_de_bambou.xlsx
+++ b/biology/Botanique/Liste_des_noms_vernaculaires_de_bambou/Liste_des_noms_vernaculaires_de_bambou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette « liste des noms vernaculaires de bambou » recense les espèces et variétés de plantes désignées en français par un nom vernaculaire commençant par « bambou » ou contenant ce terme, qui appartiennent en quasi-totalité à la famille des Poaceae, sous-famille des Bambusoideae.
 </t>
@@ -513,17 +525,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Poaceae
-Selon la base de données globale de l'OEPP[1] :
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la base de données globale de l'OEPP :
 bambou à bois  doré, Fargesia murielae
 bambou balcooa, Bambusa  balcooa
 bambou bleu, Drepanostachyum  falcatum
 bambou canebreak, Arundinaria  gigantea
-bambou carré, Chimonobambusa quadrangularis[2]
-bambou chandelle,  Semiarundinaria fastuosa[3]
-bambou commun,  Bambusa vulgaris[4]
+bambou carré, Chimonobambusa quadrangularis
+bambou chandelle,  Semiarundinaria fastuosa
+bambou commun,  Bambusa vulgaris
 bambou creux,  Oldeania alpina
-bambou creux,  Thamnocalamus tessellatus[5]
+bambou creux,  Thamnocalamus tessellatus
 bambou d'Afrique du sud,  Thamnocalamus tessellatus
 bambou de la Réunion, Nastus  borbonicus
 bambou de l'Inde, Bambusa  tulda
@@ -531,18 +548,18 @@
 bambou de montagne sud-africain,  Thamnocalamus tessellatus
 bambou de Muriel, Fargesia  murielae
 bambou de Simon, Pleioblastus  simonii
-bambou d'hiver, Phyllostachys  edulis[6]
+bambou d'hiver, Phyllostachys  edulis
 bambou doré, Phyllostachys  aurea
 bambou du Tonkin, Pseudosasa  amabilis
-bambou élégant, Phyllostachys vivax[2]
+bambou élégant, Phyllostachys vivax
 bambou épineux, Bambusa  arundinacea
 bambou épineux, Bambusa  bambos
-bambou flèche, Pseudosasa  japonica[7]
+bambou flèche, Pseudosasa  japonica
 bambou flexuosa, Phyllostachys  flexuosa
 bambou géant, Bambusa arundinacea
 bambou géant, Dendrocalamus  giganteus
 bambou géant, Phyllostachys  bambusoides
-bambou géant épineux, Bambusa  arundinacea[8]
+bambou géant épineux, Bambusa  arundinacea
 bambou géant madaké, Phyllostachys  bambusoides
 bambou géant noir,  Dendrocalamus asper
 bambou géant taïwanais,  Dendrocalamus latiflorus
@@ -553,29 +570,97 @@
 bambou kikko, Phyllostachys  heterocycla
 bambou mâle, Dendrocalamus  strictus
 bambou madaké, Phyllostachys  bambusoides
-bambou métaké, Pseudosasa  japonica[7]
+bambou métaké, Pseudosasa  japonica
 bambou moso, Phyllostachys  edulis
 bambou multiplex, Bambusa  multiplex
 bambou nain, Pleioblastus  humilis var. pumilus
 bambou nain, Pleioblastus  pygmaeus
 bambou nain, Pleioblastus  humilis
 bambou nain couvre-sol,  Sasaella ramosa
-bambou noir,  Phyllostachys nigra[2]
+bambou noir,  Phyllostachys nigra
 bambou noir du Japon,  Phyllostachys nigra
 bambou otatea, Otatea  acuminata
 bambou parapluie, Fargesia  murielae
-bambou pubescent, Phyllostachys pubescens[2]
+bambou pubescent, Phyllostachys pubescens
 bambou puissant, Bashania  fargesii
-bambou roseau, Bambusa  arundinacea[2]
+bambou roseau, Bambusa  arundinacea
 bambou roseau, Bambusa  vulgaris
 bambou rouge, Himalayacalamus  falconeri
-bambou sulphurea, Phyllostachys  sulphurea
-Berberidaceae
-Bambou céleste, Nandina domestica
+bambou sulphurea, Phyllostachys  sulphurea</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_noms_vernaculaires_de_bambou</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_noms_vernaculaires_de_bambou</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Berberidaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bambou céleste, Nandina domestica
 Bambou merveilleux, Nandina domestica
-Bambou sacré, Nandina domestica
-Autres
-Dahlia bambou, Dahlia imperialis (dahlia impérial)[9]
+Bambou sacré, Nandina domestica</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_noms_vernaculaires_de_bambou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_noms_vernaculaires_de_bambou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dahlia bambou, Dahlia imperialis (dahlia impérial)
 Renouée bambou, Reynoutria japonica (renouée du Japon)</t>
         </is>
       </c>
